--- a/Annexe-6-1-Tableau-Synthese-Epreuve-E4-BTS-SIO-2022 (1).xlsx
+++ b/Annexe-6-1-Tableau-Synthese-Epreuve-E4-BTS-SIO-2022 (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shared/Référentiels, programmes/Référentiels STS/SIO/Préparation circulaire/Finalisation circulaire/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riyad\Desktop\site-portfolio.1-main RK react V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25F472C-3F67-CB43-8A01-F5C53C7F1AE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF677A9A-5C18-434B-868D-73FE7D896532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="500" windowWidth="33260" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Réalisations en milieu professionnel en cours de seconde année</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réalisation Projet de migration utilisation Active Directory , gestion email Outlook , office 365 administratif , </t>
   </si>
 </sst>
 </file>
@@ -465,7 +468,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -473,13 +476,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -488,28 +491,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -521,13 +518,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -536,13 +527,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -554,19 +545,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -578,10 +569,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -603,9 +597,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -643,9 +637,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -678,26 +672,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -730,26 +707,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -928,84 +888,85 @@
   </sheetPr>
   <dimension ref="A1:AQ82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="70.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="1" customWidth="1"/>
     <col min="3" max="8" width="18.6640625" style="1" customWidth="1"/>
-    <col min="44" max="16384" width="10.83203125" style="1"/>
+    <col min="9" max="43" width="11.5546875" customWidth="1"/>
+    <col min="44" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="26"/>
-    </row>
-    <row r="2" spans="1:43" ht="41" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26" t="s">
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:43" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-    </row>
-    <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+    </row>
+    <row r="3" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="27" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:43" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="16" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="34" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1027,10 +988,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="8" t="s">
+    <row r="6" spans="1:43" s="2" customFormat="1" ht="325.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -1084,17 +1045,17 @@
       <c r="AP6"/>
       <c r="AQ6"/>
     </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A7" s="32" t="s">
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="34"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="30"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -1131,15 +1092,17 @@
       <c r="AP7"/>
       <c r="AQ7"/>
     </row>
-    <row r="8" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
+    <row r="8" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1176,15 +1139,15 @@
       <c r="AP8"/>
       <c r="AQ8"/>
     </row>
-    <row r="9" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
+    <row r="9" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1221,15 +1184,15 @@
       <c r="AP9"/>
       <c r="AQ9"/>
     </row>
-    <row r="10" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
+    <row r="10" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1266,15 +1229,15 @@
       <c r="AP10"/>
       <c r="AQ10"/>
     </row>
-    <row r="11" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
+    <row r="11" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1311,15 +1274,15 @@
       <c r="AP11"/>
       <c r="AQ11"/>
     </row>
-    <row r="12" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
+    <row r="12" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1356,15 +1319,15 @@
       <c r="AP12"/>
       <c r="AQ12"/>
     </row>
-    <row r="13" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
+    <row r="13" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1401,15 +1364,15 @@
       <c r="AP13"/>
       <c r="AQ13"/>
     </row>
-    <row r="14" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
+    <row r="14" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1446,15 +1409,15 @@
       <c r="AP14"/>
       <c r="AQ14"/>
     </row>
-    <row r="15" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
+    <row r="15" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1491,15 +1454,15 @@
       <c r="AP15"/>
       <c r="AQ15"/>
     </row>
-    <row r="16" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
+    <row r="16" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1536,15 +1499,15 @@
       <c r="AP16"/>
       <c r="AQ16"/>
     </row>
-    <row r="17" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="12"/>
+    <row r="17" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="19"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1581,17 +1544,17 @@
       <c r="AP17"/>
       <c r="AQ17"/>
     </row>
-    <row r="18" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A18" s="35" t="s">
+    <row r="18" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="37"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="33"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1628,15 +1591,15 @@
       <c r="AP18"/>
       <c r="AQ18"/>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="12"/>
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
       <c r="B19" s="10"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="21"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="19"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1673,15 +1636,15 @@
       <c r="AP19"/>
       <c r="AQ19"/>
     </row>
-    <row r="20" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="12"/>
+    <row r="20" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
       <c r="B20" s="10"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1718,15 +1681,15 @@
       <c r="AP20"/>
       <c r="AQ20"/>
     </row>
-    <row r="21" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="12"/>
+    <row r="21" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
       <c r="B21" s="10"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="19"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -1763,15 +1726,15 @@
       <c r="AP21"/>
       <c r="AQ21"/>
     </row>
-    <row r="22" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="12"/>
+    <row r="22" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -1808,15 +1771,15 @@
       <c r="AP22"/>
       <c r="AQ22"/>
     </row>
-    <row r="23" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="12"/>
+    <row r="23" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="21"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="19"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -1853,15 +1816,15 @@
       <c r="AP23"/>
       <c r="AQ23"/>
     </row>
-    <row r="24" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="12"/>
+    <row r="24" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
       <c r="B24" s="10"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="19"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -1898,15 +1861,15 @@
       <c r="AP24"/>
       <c r="AQ24"/>
     </row>
-    <row r="25" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="12"/>
+    <row r="25" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="21"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="19"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -1943,15 +1906,15 @@
       <c r="AP25"/>
       <c r="AQ25"/>
     </row>
-    <row r="26" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="12"/>
+    <row r="26" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
       <c r="B26" s="10"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="21"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="19"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -1988,17 +1951,17 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A27" s="35" t="s">
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="37"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="33"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2035,15 +1998,15 @@
       <c r="AP27"/>
       <c r="AQ27"/>
     </row>
-    <row r="28" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="12"/>
+    <row r="28" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
       <c r="B28" s="10"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="21"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="19"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2080,15 +2043,15 @@
       <c r="AP28"/>
       <c r="AQ28"/>
     </row>
-    <row r="29" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="12"/>
+    <row r="29" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
       <c r="B29" s="10"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="21"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="19"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2125,15 +2088,15 @@
       <c r="AP29"/>
       <c r="AQ29"/>
     </row>
-    <row r="30" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="12"/>
+    <row r="30" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
       <c r="B30" s="10"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="21"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="19"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -2170,15 +2133,15 @@
       <c r="AP30"/>
       <c r="AQ30"/>
     </row>
-    <row r="31" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="12"/>
+    <row r="31" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
       <c r="B31" s="10"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="21"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="19"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2215,15 +2178,15 @@
       <c r="AP31"/>
       <c r="AQ31"/>
     </row>
-    <row r="32" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="12"/>
+    <row r="32" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
       <c r="B32" s="10"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="21"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="19"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2260,15 +2223,15 @@
       <c r="AP32"/>
       <c r="AQ32"/>
     </row>
-    <row r="33" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="13"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="23"/>
+    <row r="33" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="19"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -2305,15 +2268,15 @@
       <c r="AP33"/>
       <c r="AQ33"/>
     </row>
-    <row r="34" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="13"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="23"/>
+    <row r="34" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="19"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2350,15 +2313,15 @@
       <c r="AP34"/>
       <c r="AQ34"/>
     </row>
-    <row r="35" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="25"/>
+    <row r="35" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="21"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
@@ -2395,7 +2358,7 @@
       <c r="AP35"/>
       <c r="AQ35"/>
     </row>
-    <row r="36" spans="1:43" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:43" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="3"/>
       <c r="C36" s="4"/>
@@ -2440,52 +2403,52 @@
       <c r="AP36"/>
       <c r="AQ36"/>
     </row>
-    <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A5:A6"/>

--- a/Annexe-6-1-Tableau-Synthese-Epreuve-E4-BTS-SIO-2022 (1).xlsx
+++ b/Annexe-6-1-Tableau-Synthese-Epreuve-E4-BTS-SIO-2022 (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riyad\Desktop\site-portfolio.1-main RK react V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF677A9A-5C18-434B-868D-73FE7D896532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FF3841-C22D-41E5-BCF5-EB74D1C22C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -533,6 +533,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -573,9 +576,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -888,8 +888,8 @@
   </sheetPr>
   <dimension ref="A1:AQ82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -902,56 +902,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="22"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:43" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="23" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="26"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="14" t="s">
         <v>8</v>
       </c>
@@ -963,10 +963,10 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -989,9 +989,9 @@
       </c>
     </row>
     <row r="6" spans="1:43" s="2" customFormat="1" ht="325.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="36" t="s">
+      <c r="A6" s="28"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="22" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -1046,16 +1046,16 @@
       <c r="AQ6"/>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -1545,16 +1545,16 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="34"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1952,16 +1952,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="34"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>

--- a/Annexe-6-1-Tableau-Synthese-Epreuve-E4-BTS-SIO-2022 (1).xlsx
+++ b/Annexe-6-1-Tableau-Synthese-Epreuve-E4-BTS-SIO-2022 (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riyad\Desktop\site-portfolio.1-main RK react V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FF3841-C22D-41E5-BCF5-EB74D1C22C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0EB512-AA34-4F3C-81FD-2601AF48F78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -86,9 +86,6 @@
 ▸Développer son projet professionnel</t>
   </si>
   <si>
-    <t>Centre de formation :</t>
-  </si>
-  <si>
     <t>▢ SISR</t>
   </si>
   <si>
@@ -104,15 +101,9 @@
 (intitulé et liste des documents et productions associés)</t>
   </si>
   <si>
-    <t>SESSION 2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">N° candidat : </t>
   </si>
   <si>
-    <t xml:space="preserve">NOM et prénom : </t>
-  </si>
-  <si>
     <t>Période (sous la forme du JJ/MM/AA au JJ/MM/AA)</t>
   </si>
   <si>
@@ -123,6 +114,15 @@
   </si>
   <si>
     <t xml:space="preserve">Réalisation Projet de migration utilisation Active Directory , gestion email Outlook , office 365 administratif , </t>
+  </si>
+  <si>
+    <t>NOM et prénom : KAYAT Riyad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centre de formation : </t>
+  </si>
+  <si>
+    <t>SESSION 2025</t>
   </si>
 </sst>
 </file>
@@ -888,8 +888,8 @@
   </sheetPr>
   <dimension ref="A1:AQ82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -911,7 +911,7 @@
       <c r="E1" s="23"/>
       <c r="F1" s="23"/>
       <c r="G1" s="23" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H1" s="23"/>
     </row>
@@ -929,14 +929,14 @@
     </row>
     <row r="3" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
       <c r="E3" s="26"/>
       <c r="F3" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="26"/>
@@ -946,7 +946,7 @@
     </row>
     <row r="4" spans="1:43" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -956,18 +956,18 @@
         <v>8</v>
       </c>
       <c r="G4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>0</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="17"/>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>

--- a/Annexe-6-1-Tableau-Synthese-Epreuve-E4-BTS-SIO-2022 (1).xlsx
+++ b/Annexe-6-1-Tableau-Synthese-Epreuve-E4-BTS-SIO-2022 (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riyad\Desktop\site-portfolio.1-main RK react V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0EB512-AA34-4F3C-81FD-2601AF48F78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51F6880-F755-4E49-9FBB-ADFC4B8C0796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -50,14 +50,6 @@
   </si>
   <si>
     <t>Option :</t>
-  </si>
-  <si>
-    <t>▸Recenser et identifier les ressources numériques 
-▸Exploiter des référentiels, normes et standards adoptés par le prestataire informatique
-▸Mettre en place et vérifier les niveaux d’habilitation associés à un service
-▸Vérifier les conditions de la continuité d’un service informatique
-▸Gérer des sauvegardes
-▸Vérifier le respect des règles d’utilisation des ressources numériques</t>
   </si>
   <si>
     <t>▸Collecter, suivre et orienter des demandes 
@@ -116,13 +108,54 @@
     <t xml:space="preserve">Réalisation Projet de migration utilisation Active Directory , gestion email Outlook , office 365 administratif , </t>
   </si>
   <si>
-    <t>NOM et prénom : KAYAT Riyad</t>
-  </si>
-  <si>
     <t xml:space="preserve">Centre de formation : </t>
   </si>
   <si>
     <t>SESSION 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installation d'un environnement gns3 simulation d'une infrastruture connectés </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installation de machine virtuelle Windows Serveur 2025 , Windows 11, Kali linux </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOM et prénom : </t>
+  </si>
+  <si>
+    <t>▸Recenser et identifier les ressources numériques 
+▸Exploiter des référentiels, normes et standards adoptés par le prestataire informatique
+▸Mettre en place et vérif aier les niveaux d’habilitation associés à un service
+▸Vérifier les conditions de la continuité d’un service informatique
+▸Gérer des sauvegardes
+▸Vérifier le respect des règles d’utilisation des ressources numériques</t>
+  </si>
+  <si>
+    <t>Ajout de restriction des droits d'accès à Office 365 Active Directory, limitation d'accès</t>
+  </si>
+  <si>
+    <t>Conception et développement d'applications</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Transfert et suppression de données</t>
+  </si>
+  <si>
+    <t>Portfolio React , Format mobile , Animation</t>
+  </si>
+  <si>
+    <t>Mise en œuvre d'un environnement de test d'intrusion sécurisé pour application Web</t>
+  </si>
+  <si>
+    <t>Planification de la semaine , Git commit</t>
+  </si>
+  <si>
+    <t>Vérifications finales , Test commandes</t>
+  </si>
+  <si>
+    <t>Veille technologique , TP Kali Linux TP Gns3 TP VLAN</t>
   </si>
 </sst>
 </file>
@@ -491,12 +524,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -577,6 +604,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -888,8 +921,8 @@
   </sheetPr>
   <dimension ref="A1:AQ82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="69" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -902,72 +935,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="23"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:43" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
+      <c r="A3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="14" t="s">
+      <c r="A4" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="16" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="5" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>20</v>
+      <c r="A5" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>19</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>0</v>
@@ -989,25 +1022,25 @@
       </c>
     </row>
     <row r="6" spans="1:43" s="2" customFormat="1" ht="325.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="22" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="35" t="s">
         <v>13</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>14</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -1046,16 +1079,16 @@
       <c r="AQ6"/>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="31"/>
+      <c r="A7" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="29"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -1093,16 +1126,22 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
+      <c r="A8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="17"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1140,14 +1179,24 @@
       <c r="AQ8"/>
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
+      <c r="A9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="17"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1185,14 +1234,22 @@
       <c r="AQ9"/>
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
+      <c r="A10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>31</v>
+      </c>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1230,14 +1287,17 @@
       <c r="AQ10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19"/>
+      <c r="A11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1275,14 +1335,20 @@
       <c r="AQ11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
+      <c r="A12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1320,14 +1386,20 @@
       <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
+      <c r="A13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="36" t="s">
+        <v>31</v>
+      </c>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1365,14 +1437,20 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
+      <c r="A14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1410,14 +1488,18 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
+      <c r="A15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="17"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1455,14 +1537,22 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
+      <c r="A16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>31</v>
+      </c>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1500,14 +1590,22 @@
       <c r="AQ16"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="19"/>
+      <c r="A17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>31</v>
+      </c>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1545,16 +1643,16 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="34"/>
+      <c r="A18" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="32"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1592,14 +1690,14 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="19"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1637,14 +1735,14 @@
       <c r="AQ19"/>
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1682,14 +1780,14 @@
       <c r="AQ20"/>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="19"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -1727,14 +1825,14 @@
       <c r="AQ21"/>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="19"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -1772,14 +1870,14 @@
       <c r="AQ22"/>
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="19"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -1817,14 +1915,14 @@
       <c r="AQ23"/>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="19"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -1862,14 +1960,14 @@
       <c r="AQ24"/>
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="19"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="17"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -1907,14 +2005,14 @@
       <c r="AQ25"/>
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="19"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="17"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -1952,16 +2050,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="34"/>
+      <c r="A27" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="32"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -1999,14 +2097,22 @@
       <c r="AQ27"/>
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="19"/>
+      <c r="A28" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="17"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2044,14 +2150,14 @@
       <c r="AQ28"/>
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="17"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2089,14 +2195,14 @@
       <c r="AQ29"/>
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="19"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="17"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -2134,14 +2240,14 @@
       <c r="AQ30"/>
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="19"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="17"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2179,14 +2285,14 @@
       <c r="AQ31"/>
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="19"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="17"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2224,14 +2330,14 @@
       <c r="AQ32"/>
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="19"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="17"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -2269,14 +2375,14 @@
       <c r="AQ33"/>
     </row>
     <row r="34" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="19"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="17"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2314,14 +2420,14 @@
       <c r="AQ34"/>
     </row>
     <row r="35" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="21"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="19"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>

--- a/Annexe-6-1-Tableau-Synthese-Epreuve-E4-BTS-SIO-2022 (1).xlsx
+++ b/Annexe-6-1-Tableau-Synthese-Epreuve-E4-BTS-SIO-2022 (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riyad\Desktop\site-portfolio.1-main RK react V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51F6880-F755-4E49-9FBB-ADFC4B8C0796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98CC6EF-E923-4B79-A96F-62DF56D05679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,16 +111,10 @@
     <t xml:space="preserve">Centre de formation : </t>
   </si>
   <si>
-    <t>SESSION 2025</t>
-  </si>
-  <si>
     <t xml:space="preserve">Installation d'un environnement gns3 simulation d'une infrastruture connectés </t>
   </si>
   <si>
     <t xml:space="preserve">Installation de machine virtuelle Windows Serveur 2025 , Windows 11, Kali linux </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOM et prénom : </t>
   </si>
   <si>
     <t>▸Recenser et identifier les ressources numériques 
@@ -156,6 +150,12 @@
   </si>
   <si>
     <t>Veille technologique , TP Kali Linux TP Gns3 TP VLAN</t>
+  </si>
+  <si>
+    <t>NOM et prénom : Riyad KAYAT</t>
+  </si>
+  <si>
+    <t>SESSION 2026</t>
   </si>
 </sst>
 </file>
@@ -563,9 +563,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -574,42 +610,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -921,8 +921,8 @@
   </sheetPr>
   <dimension ref="A1:AQ82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="69" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -935,56 +935,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:43" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="22" t="s">
+      <c r="A3" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="36"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="12" t="s">
         <v>8</v>
       </c>
@@ -996,10 +996,10 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1022,10 +1022,10 @@
       </c>
     </row>
     <row r="6" spans="1:43" s="2" customFormat="1" ht="325.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="34"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>9</v>
@@ -1039,7 +1039,7 @@
       <c r="G6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="21" t="s">
         <v>13</v>
       </c>
       <c r="I6"/>
@@ -1079,16 +1079,16 @@
       <c r="AQ6"/>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="29"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -1131,15 +1131,15 @@
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H8" s="17"/>
       <c r="I8"/>
@@ -1180,21 +1180,21 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9"/>
@@ -1235,20 +1235,20 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="36" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -1288,11 +1288,11 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
@@ -1336,14 +1336,14 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
@@ -1387,18 +1387,18 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
-      <c r="H13" s="36" t="s">
-        <v>31</v>
+      <c r="H13" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -1438,16 +1438,16 @@
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="17"/>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="16"/>
@@ -1497,7 +1497,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15"/>
@@ -1538,20 +1538,20 @@
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="I16"/>
       <c r="J16"/>
@@ -1591,20 +1591,20 @@
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="36" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
@@ -1643,16 +1643,16 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="32"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -2050,16 +2050,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="32"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="31"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2098,19 +2098,19 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H28" s="17"/>
       <c r="I28"/>
@@ -2557,17 +2557,17 @@
     <row r="82" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A18:H18"/>
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Annexe-6-1-Tableau-Synthese-Epreuve-E4-BTS-SIO-2022 (1).xlsx
+++ b/Annexe-6-1-Tableau-Synthese-Epreuve-E4-BTS-SIO-2022 (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riyad\Desktop\site-portfolio.1-main RK react V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98CC6EF-E923-4B79-A96F-62DF56D05679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8897A882-DE92-44A5-A8E3-2A051D762332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -134,28 +134,31 @@
     <t>X</t>
   </si>
   <si>
-    <t>Transfert et suppression de données</t>
-  </si>
-  <si>
     <t>Portfolio React , Format mobile , Animation</t>
   </si>
   <si>
     <t>Mise en œuvre d'un environnement de test d'intrusion sécurisé pour application Web</t>
   </si>
   <si>
-    <t>Planification de la semaine , Git commit</t>
-  </si>
-  <si>
     <t>Vérifications finales , Test commandes</t>
   </si>
   <si>
     <t>Veille technologique , TP Kali Linux TP Gns3 TP VLAN</t>
   </si>
   <si>
-    <t>NOM et prénom : Riyad KAYAT</t>
-  </si>
-  <si>
     <t>SESSION 2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfert et suppression de données , Powershell automatisation d'action </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planification de la semaine , Git commit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intégration de simulation </t>
+  </si>
+  <si>
+    <t>NOM et prénom : KAYAT Riyad</t>
   </si>
 </sst>
 </file>
@@ -922,7 +925,7 @@
   <dimension ref="A1:AQ82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -944,7 +947,7 @@
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
       <c r="G1" s="25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H1" s="25"/>
     </row>
@@ -962,7 +965,7 @@
     </row>
     <row r="3" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -1336,7 +1339,7 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="15" t="s">
@@ -1387,7 +1390,7 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="16"/>
@@ -1438,7 +1441,7 @@
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="16"/>
@@ -1489,7 +1492,7 @@
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="16"/>
@@ -1538,7 +1541,7 @@
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="16"/>
@@ -1591,7 +1594,7 @@
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="15" t="s">
@@ -1690,7 +1693,9 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+      <c r="A19" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="B19" s="8"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
